--- a/medicine/Mort/Enclos_des_fusillés_(Bruxelles)/Enclos_des_fusillés_(Bruxelles).xlsx
+++ b/medicine/Mort/Enclos_des_fusillés_(Bruxelles)/Enclos_des_fusillés_(Bruxelles).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enclos_des_fusill%C3%A9s_(Bruxelles)</t>
+          <t>Enclos_des_fusillés_(Bruxelles)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Enclos des fusillés de Bruxelles est un petit cimetière situé rue Colonel Bourg à Schaerbeek qui compte 365 tombes de résistants des deux guerres mondiales.
 Le cimetière est situé à l'endroit même où les résistants ont été fusillés par les Allemands, dont Edith Cavell, Philippe Baucq, Gabrielle Petit et Youra Livchitz, à l'emplacement de l'ancien Tir national.
 L'Enclos a reçu le titre de "Nécropole nationale" par arrêté royal du 31 juillet 2020. 
 Chaque quatrième dimanche d'avril, se tenait à l'Enclos des Fusillés la manifestation nationale, l'hommage aux victimes des camps de concentration et prisons nazis, en présence des plus hautes autorités du pays, jusqu'en 2021. Depuis la commémoration a lieu tous les trois ans, et ce pour la première fois le dimanche 28 avril 2024 à 14h30. 
-Le site a été classé par la Région de Bruxelles-Capitale en date du 12 janvier 1983[1],[2].
+Le site a été classé par la Région de Bruxelles-Capitale en date du 12 janvier 1983,.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enclos_des_fusill%C3%A9s_(Bruxelles)</t>
+          <t>Enclos_des_fusillés_(Bruxelles)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,8 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Première Guerre mondiale
-Liste des personnes exécutées au Tir national durant la Première Guerre mondiale, la date d'exécution figure entre parenthèses
+          <t>Première Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des personnes exécutées au Tir national durant la Première Guerre mondiale, la date d'exécution figure entre parenthèses
 Joseph Baeckelmans († 23 septembre 1915)
 Alexandre Franck († 23 septembre 1915)
 Edith Cavell († 12 octobre 1915)
@@ -532,7 +549,7 @@
 Gabrielle Petit († 1er avril 1916)
 Emile Gressier († 19 avril 1916)
 Oscar Hernalsteens († 19 avril 1916)
-Jules Mohr († 19 avril 1916)[3]
+Jules Mohr († 19 avril 1916)
 Prosper Kricke († 15 mai 1916)
 Louis Lefebvre († 15 mai 1916)
 Ch. Parente († 15 mai 1916)
@@ -554,8 +571,43 @@
 Georges Kuge († 25 juin 1917)
 François Vergauwen († 25 juin 1917)
 Emile Stevigny († 13 décembre 1917)
-Seconde Guerre mondiale
-Liste des personnes exécutées et/ou enterrées au Tir national durant la Seconde Guerre mondiale, la date d'exécution figure entre parenthèses
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Enclos_des_fusillés_(Bruxelles)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enclos_des_fusill%C3%A9s_(Bruxelles)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Inhumations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des personnes exécutées et/ou enterrées au Tir national durant la Seconde Guerre mondiale, la date d'exécution figure entre parenthèses
 André Bertulot († 10 mai 1943)
 René Copinne († 18 janvier 1943)
 Arnaud Fraiteur († 10 mai 1943)
@@ -567,36 +619,38 @@
 Jacques Storck († 15 mars 1943)
 Victor Thonet († 20 avril 1943)
 Liste complète des personnes fusillées durant la Seconde Guerre mondiale au Tir national et/ou enterrées dans l'Enclos des fusillés.
-Listes des victimes fusillées par les Allemands, 1940-1944[4]
+Listes des victimes fusillées par les Allemands, 1940-1944
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Enclos_des_fusill%C3%A9s_(Bruxelles)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Enclos_des_fusillés_(Bruxelles)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Enclos_des_fusill%C3%A9s_(Bruxelles)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Réaménagements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Après guerres il y a eu exhumation des corps pour autopsie et authentification.
 En ce qui concerne la première guerre mondiale, les corps et les tombes des victimes exécutées  n’y sont plus. Une plaque commémorative  reprenant leurs 35 noms leur a été érigée.
